--- a/PCAstatic/PCAstatic_predicted_factors_matrix_7.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:AU8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,132 @@
       <c r="E1" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -466,6 +592,132 @@
       <c r="E2" t="n">
         <v>-4.281076302502823</v>
       </c>
+      <c r="F2" t="n">
+        <v>-3.890281490079212</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-3.492359709635138</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-3.096359317696861</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-2.709079818124636</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-2.336522791743341</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1.983449307356938</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1.65349212076886</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.349266844878356</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1.072482968777317</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.8240536462593532</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.6042031713274075</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4125709102051376</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-0.2483104541250624</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.1101828675338488</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.003356903413840966</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.09408116172300719</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.163918578894093</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.2148915096386474</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.2490614909873031</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.2681801816099333</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.2744124559888531</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.2697566760871734</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.2560913444787319</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.2349665260990179</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.2079318052318735</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.1766001213603937</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1423339567974143</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.1063195876247236</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.06957608432307454</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.03296339411311276</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.002807947130661731</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.03716575081082039</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.06967283865573448</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.09998277481593199</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.1278611517839605</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.1531647655200347</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.1758283484482309</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.1958523291650503</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.2132913733747615</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.2282437992825668</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.2408419309729696</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.2512434265387956</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,6 +735,132 @@
       <c r="E3" t="n">
         <v>-1.117789291719388</v>
       </c>
+      <c r="F3" t="n">
+        <v>-1.069425065442297</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1.01010864220431</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.9433191206892836</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.8713400289569668</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.7964078350247945</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.7204295365966069</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.6450199106808081</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.5715335507730988</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-0.501087100701426</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.4345767280929443</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3726936690486665</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.3159396791878332</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.2646433840311455</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.2189778500085197</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.1789792226336022</v>
+      </c>
+      <c r="U3" t="n">
+        <v>-0.1445659928624596</v>
+      </c>
+      <c r="V3" t="n">
+        <v>-0.1155583275805403</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.09169689559268686</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.07266069437227175</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.05791661774073604</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.04729316116496918</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.04038652414200489</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.03676056365518338</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.0358721482862529</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.03734275223793926</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.04091377448350412</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.04620216226598371</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.05283863416212901</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.06048686390732479</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.06884591023441297</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.07765047919998895</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.08667031115203265</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.09564591435967743</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.1044793240154439</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.1130357878038876</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.1212065660495589</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.128908828512657</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.1360829889977504</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.1426899672076012</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.1487084775782232</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.1541324130878201</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.1589683639548614</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -500,6 +878,132 @@
       <c r="E4" t="n">
         <v>0.1028389698334984</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.1546471745205608</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.1884359627163595</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2066197331259418</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2113209380945653</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.204548265346157</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1881487963648089</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.1638175436582569</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1331061636935068</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.09742924861317827</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.05806825676035419</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.01617380118695433</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.02723274023242268</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-0.07125737655779935</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1151307121109085</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.1582037823806725</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.1999423614723276</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.2399198126689527</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.2778087159641707</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.3133716002930788</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.3463090956699115</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.3766315830048728</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.4043158688811943</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.4293937010058306</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.4517353323754291</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.471397825623172</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.4887253936665117</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.5038786368112296</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.5170324675654941</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.5283681929058717</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.5380686451309812</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.5463143191010155</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.5532802471066366</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.5588332839396698</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.5634351475440512</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.5672329363992497</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.5703616080191921</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.5729431051550029</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.5750861814328058</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.576886541112328</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.5784272205985797</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.5797791614764856</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.5810019311777447</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -517,6 +1021,132 @@
       <c r="E5" t="n">
         <v>0.06782920379278712</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.2226969134855804</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3349353715950119</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.412030972022321</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.4600034491703668</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.4843166637696275</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.4897100310099085</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.4802791519290672</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4595480784703562</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4305335191169142</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.395800802932868</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3575124172411426</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3174704204146846</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2771541103239629</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.2377541700644631</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.2002042351737764</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1652105190060535</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1332798530263202</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.1047462778587557</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.07979616974675703</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.05846955392882731</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.04079919386399504</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.0266497669259055</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.01582486053025595</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.008092433684088345</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.003200481680708801</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.000844991226432524</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.0007057966213766687</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0.002465180500966926</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0.005813588147727314</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0.01045546214017839</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0.01611378803843232</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0.02253335960580931</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.02946063606659925</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.03670697273169966</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.04409116749257663</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.05145817082352361</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.05867766572281688</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0.06564280630614165</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0.07226864570217603</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0.0784903398410685</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0.08426120921010123</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0.08955072883942659</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -534,6 +1164,132 @@
       <c r="E6" t="n">
         <v>-0.09890832122884941</v>
       </c>
+      <c r="F6" t="n">
+        <v>-0.146106755214209</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.1863929502572302</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0.2202289155281474</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-0.2474629003626988</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-0.2684135856279943</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-0.2834689945593181</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.2930599716420995</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.2976435871438048</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.2976965885344551</v>
+      </c>
+      <c r="O6" t="n">
+        <v>-0.2937127335911561</v>
+      </c>
+      <c r="P6" t="n">
+        <v>-0.2862003728445997</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2756782632844788</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-0.2626689472704483</v>
+      </c>
+      <c r="S6" t="n">
+        <v>-0.2476899965617814</v>
+      </c>
+      <c r="T6" t="n">
+        <v>-0.2312439889116818</v>
+      </c>
+      <c r="U6" t="n">
+        <v>-0.213808300708816</v>
+      </c>
+      <c r="V6" t="n">
+        <v>-0.1958257453281613</v>
+      </c>
+      <c r="W6" t="n">
+        <v>-0.1776968597397295</v>
+      </c>
+      <c r="X6" t="n">
+        <v>-0.1597743346134037</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.141863792499423</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.1248121490852453</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.1088116605887397</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.09400380218121093</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.08017501714525217</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.06748673709462295</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.05630355650019846</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.04659446924768979</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.03830317930492361</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.03135427840378382</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.02565841947559627</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.02111655295439261</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.0176235865804466</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.0150244660971567</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.01327401243057233</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.01226135133341719</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.01187957965221138</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.01202759805740121</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.01261120578468013</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.01354378528028225</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.01474672346043716</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.01614960313991558</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.01769019937147695</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -551,6 +1307,132 @@
       <c r="E7" t="n">
         <v>0.02942642950938239</v>
       </c>
+      <c r="F7" t="n">
+        <v>-0.005614825490792374</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03692572407122026</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.06458676702511169</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-0.08837522831226041</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-0.1084009811592502</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-0.1248165329983646</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.1377940215904837</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1475110959772311</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.154149887905494</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-0.1579028899773784</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.1589806944224229</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.1576180811828688</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-0.1540764031114073</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-0.1486415631876643</v>
+      </c>
+      <c r="T7" t="n">
+        <v>-0.1416179780539171</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.1333196634605137</v>
+      </c>
+      <c r="V7" t="n">
+        <v>-0.1240599161633274</v>
+      </c>
+      <c r="W7" t="n">
+        <v>-0.1141410427995728</v>
+      </c>
+      <c r="X7" t="n">
+        <v>-0.1038453037538683</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.09309329571794317</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.08251444558871698</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>-0.0722860873070276</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.0625571807142767</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.05323426323785844</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.04447599382043883</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.03656775728687119</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.02952016459701158</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.02332826761745314</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.01797052216773247</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.01341191532130297</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.009607175200007152</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.006503587869134463</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.004013101957159943</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.002118468697438725</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.0007522841471073933</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0001499035280400399</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.0006506389020326576</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0.0008096529453693061</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0.0006831630569789913</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0.0003233608911156877</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.0002219352492184811</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.0009094833535539162</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -567,6 +1449,132 @@
       </c>
       <c r="E8" t="n">
         <v>-0.05220553629704378</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1326863656313033</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.2031671516060926</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.2636741781421131</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-0.3134238634955253</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-0.3524990627131175</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-0.3813070529039808</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.400504606118806</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.4109310695924898</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.4135456245986975</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-0.4093714857433335</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.3994484555503667</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.3847945390660701</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-0.3663767571863849</v>
+      </c>
+      <c r="S8" t="n">
+        <v>-0.3450907643896245</v>
+      </c>
+      <c r="T8" t="n">
+        <v>-0.3217483770195108</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.2970717165316923</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2716924422923023</v>
+      </c>
+      <c r="W8" t="n">
+        <v>-0.2461545270203062</v>
+      </c>
+      <c r="X8" t="n">
+        <v>-0.2209191955619856</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.1956810948012953</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.1715898534364504</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.1488819997144282</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.1277352117254561</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.1078479043059957</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.08944884472765739</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.07305106321243618</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>-0.05862442126067188</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.04610910040745288</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.03542078030823339</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.02645548352253823</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.0190943108851462</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.01320784684243288</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.008602236662814743</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.00521965790599546</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.002914459290310907</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.001544616510601548</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.0009742015157877428</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.001074934213119087</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.001727399993867891</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.002821892579186681</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.00425892473625537</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.005949450896893817</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_7.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_7.xlsx
@@ -443,58 +443,58 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-5.525363588537587</v>
+        <v>-1.489904854225173</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.295761479321412</v>
+        <v>-1.30879001124827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.188280789219682</v>
+        <v>-0.484597602834602</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.162100333274281</v>
+        <v>-0.559877243650435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.3326581786011631</v>
+        <v>-0.8461102430395187</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.1848417429899538</v>
+        <v>-0.6769899601950435</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.17129059303259</v>
+        <v>-0.7454960035135753</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7400767273001361</v>
+        <v>-0.646893511556516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1460337538894644</v>
+        <v>0.8213203197013023</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07715657836176437</v>
+        <v>0.6030301903909269</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2037758060782868</v>
+        <v>-0.08440379268880797</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1521690144599092</v>
+        <v>0.0460360109313537</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3467088351760086</v>
+        <v>0.8022037793066553</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2358127246284749</v>
+        <v>0.53485774027454</v>
       </c>
     </row>
   </sheetData>

--- a/PCAstatic/PCAstatic_predicted_factors_matrix_7.xlsx
+++ b/PCAstatic/PCAstatic_predicted_factors_matrix_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,115 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>-1.489904854225173</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.30879001124827</v>
+        <v>-117.5733954591297</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1853.075674899523</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1498141.694200915</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-537824273.9931698</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-162664820347.4282</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-47309780132391.46</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.349986604546909e+16</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-3.782212154702099e+18</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.032077879907876e+21</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-2.728592010661795e+23</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-7.01770882478539e+25</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.769399521232306e+28</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-4.413388771942744e+30</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1.09306190423148e+33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-2.691117630553732e+35</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-6.600448671626426e+37</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1.616637097311507e+40</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-3.959977014322193e+42</v>
       </c>
     </row>
     <row r="3">
@@ -454,7 +556,58 @@
         <v>-0.484597602834602</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.559877243650435</v>
+        <v>-87.97536871905066</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-20793.90458437589</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-3738394.275566207</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-709787484.8902605</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-140046227410.9655</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-28006100525594.28</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-5363995581486081</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.014763848940031e+18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.890217456235015e+20</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.435297865053011e+22</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5.990225952299877e+24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>9.742843982586775e+26</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.407807850203157e+29</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.65061616647308e+31</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.21993323947378e+33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-3.028700344296164e+34</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-2.593861679963301e+37</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-4.932546140028975e+39</v>
       </c>
     </row>
     <row r="4">
@@ -462,7 +615,58 @@
         <v>-0.8461102430395187</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6769899601950435</v>
+        <v>-34.70996098981062</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1717.451021429025</v>
+      </c>
+      <c r="D4" t="n">
+        <v>289051.3494696679</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37366238.89758003</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2101728582.453256</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-753673690752.8978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-142831011283632.4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-2.603212541296804e+16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3.376974099766519e+18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-4.279504948458027e+19</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.28933456069079e+23</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.371007893677123e+25</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.636539045135015e+27</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.176377793149809e+30</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.791296053715024e+32</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.159157069592929e+34</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5.963160294525438e+36</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.180782755400061e+39</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +674,58 @@
         <v>-0.7454960035135753</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.646893511556516</v>
+        <v>73.92299186006281</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10333.14965147616</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1612217.967909207</v>
+      </c>
+      <c r="E5" t="n">
+        <v>310908780.6016105</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60766968078.32584</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11764790470154.72</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2128724242223206</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.644820551075466e+17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.67492025078045e+19</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-7.597060461947019e+21</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-8.107798612278002e+23</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-6.698801184102598e+25</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-6.873413893078861e+27</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-1.17095745907091e+30</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-1.993958088359337e+32</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-3.474283352242373e+34</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-6.282315047797211e+36</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-1.163480535359794e+39</v>
       </c>
     </row>
     <row r="6">
@@ -478,7 +733,58 @@
         <v>0.8213203197013023</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6030301903909269</v>
+        <v>4.029192608726481</v>
+      </c>
+      <c r="C6" t="n">
+        <v>852.5170833047086</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-685240.8504095495</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-91295829.86662754</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-10503446989.29262</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-1042897804265.115</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-30750613018040.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8775160098549842</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.752428950205883e+18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.183621839499719e+20</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.701100212409481e+22</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.194589296541217e+24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.966123143617758e+26</v>
+      </c>
+      <c r="O6" t="n">
+        <v>4.90629210763026e+28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5.734963869662242e+30</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.930458121983933e+32</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.876903698597976e+34</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.639926698673575e+37</v>
       </c>
     </row>
     <row r="7">
@@ -486,7 +792,58 @@
         <v>-0.08440379268880797</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0460360109313537</v>
+        <v>27.58377430281051</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1657.523980568973</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-409949.0946234352</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-82987415.00449117</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-14442714083.48731</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-2125674486659.736</v>
+      </c>
+      <c r="H7" t="n">
+        <v>244571137800507.4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.638506640538899e+16</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.810011685021059e+17</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.783288773872034e+19</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.230885129917526e+21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.003609633142214e+24</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.91228677340818e+26</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4.243757643169563e+28</v>
+      </c>
+      <c r="P7" t="n">
+        <v>8.569076179554735e+30</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.576543177364242e+33</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.680925184771271e+35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>4.36456553373592e+37</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +851,58 @@
         <v>0.8022037793066553</v>
       </c>
       <c r="B8" t="n">
-        <v>0.53485774027454</v>
+        <v>36.97324744735662</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3462.651883887788</v>
+      </c>
+      <c r="D8" t="n">
+        <v>546470.7863033935</v>
+      </c>
+      <c r="E8" t="n">
+        <v>94050984.58691967</v>
+      </c>
+      <c r="F8" t="n">
+        <v>14413846895.56113</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1746190939401.588</v>
+      </c>
+      <c r="H8" t="n">
+        <v>127411944089060.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>6345919125431228</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.374931184570844e+17</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.150257949112462e+20</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.553510092387714e+22</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.083303623876442e+24</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.80533852591347e+26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>3.687223236184643e+28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.803767910143238e+30</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.547996790627521e+32</v>
+      </c>
+      <c r="R8" t="n">
+        <v>9.756541316550509e+34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.55136899371035e+37</v>
       </c>
     </row>
   </sheetData>
